--- a/Raffloux-API-ExcelData/RR-Raffloux-RestApi.xlsx
+++ b/Raffloux-API-ExcelData/RR-Raffloux-RestApi.xlsx
@@ -10,12 +10,15 @@
     <sheet name="Login-Api-TestCase-PN" sheetId="1" r:id="rId1"/>
     <sheet name="Funct-Api-TestCase-PN" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Funct-Api-TestCase-PN'!$A$1:$G$110</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="342">
   <si>
     <t>Rownumber</t>
   </si>
@@ -949,7 +952,7 @@
   </si>
   <si>
     <t>{
-"drawCode":"22"}</t>
+"drawCode":"203945"}</t>
   </si>
   <si>
     <t>ROW:88</t>
@@ -971,6 +974,9 @@
   </si>
   <si>
     <t>/v1/sortDrawticketsPurchase</t>
+  </si>
+  <si>
+    <t>{"raffleId":7978}</t>
   </si>
   <si>
     <t>ROW:91</t>
@@ -1151,10 +1157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1212,9 +1218,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,16 +1255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,28 +1264,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1289,8 +1286,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,41 +1340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,7 +1356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,25 +1383,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1437,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,37 +1533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,85 +1563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,20 +1594,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,17 +1640,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1675,11 +1666,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,15 +1694,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,134 +1712,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1842,6 +1848,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1849,15 +1858,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1868,7 +1871,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1881,9 +1884,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2206,47 +2206,47 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="5"/>
-    <col min="2" max="2" width="25.1428571428571" style="5" customWidth="1"/>
-    <col min="3" max="3" width="53.5714285714286" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.7142857142857" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.5714285714286" style="5" customWidth="1"/>
-    <col min="6" max="6" width="32.8571428571429" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.1428571428571" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="5"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="25.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="59" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="59" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="105" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2258,18 +2258,18 @@
       <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="105" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2281,18 +2281,18 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="6">
         <v>400</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="105" spans="1:7">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2304,18 +2304,18 @@
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="6">
         <v>400</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="105" spans="1:7">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2327,18 +2327,18 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6">
         <v>400</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="105" spans="1:7">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2350,18 +2350,18 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="6">
         <v>400</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="60" spans="1:7">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2373,18 +2373,18 @@
       <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="6">
         <v>403</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="45" spans="1:7">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2396,13 +2396,13 @@
       <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <v>403</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2417,8 +2417,8 @@
   <sheetPr/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2429,35 +2429,35 @@
     <col min="4" max="4" width="26.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.4285714285714" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7142857142857" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2469,64 +2469,64 @@
       <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>403</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>200</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2538,44 +2538,44 @@
       <c r="D5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>200</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="1">
         <v>403</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2584,18 +2584,18 @@
       <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="1">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2613,38 +2613,38 @@
       <c r="F8" s="1">
         <v>200</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>403</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2653,18 +2653,18 @@
       <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="1">
         <v>200</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2676,44 +2676,44 @@
       <c r="D11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="5" t="s">
+    <row r="12" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="1">
         <v>403</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2722,18 +2722,18 @@
       <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2745,44 +2745,44 @@
       <c r="D14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="1">
         <v>200</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>403</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2791,18 +2791,18 @@
       <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="1">
         <v>400</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2814,44 +2814,44 @@
       <c r="D17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>200</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="5" t="s">
+    <row r="18" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>403</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2860,18 +2860,18 @@
       <c r="D19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1">
         <v>400</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2883,44 +2883,44 @@
       <c r="D20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="1">
         <v>200</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="5" t="s">
+    <row r="21" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="1">
         <v>403</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -2929,18 +2929,18 @@
       <c r="D22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="1">
         <v>400</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A23" s="5" t="s">
+    <row r="23" s="1" customFormat="1" ht="165" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2952,44 +2952,44 @@
       <c r="D23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="1">
         <v>200</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A24" s="5" t="s">
+    <row r="24" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="1">
         <v>403</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2998,18 +2998,18 @@
       <c r="D25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="1">
         <v>400</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A26" s="5" t="s">
+    <row r="26" s="1" customFormat="1" ht="255" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3021,44 +3021,44 @@
       <c r="D26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="1">
         <v>200</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A27" s="5" t="s">
+    <row r="27" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="1">
         <v>403</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3067,18 +3067,18 @@
       <c r="D28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="1">
         <v>400</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A29" s="5" t="s">
+    <row r="29" s="1" customFormat="1" ht="255" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3090,44 +3090,44 @@
       <c r="D29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F29" s="1">
         <v>200</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F30" s="1">
         <v>403</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -3136,18 +3136,18 @@
       <c r="D31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F31" s="1">
         <v>400</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A32" s="5" t="s">
+    <row r="32" s="1" customFormat="1" ht="195" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3159,44 +3159,44 @@
       <c r="D32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F32" s="1">
         <v>200</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="5" t="s">
+    <row r="33" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="1">
         <v>403</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -3205,18 +3205,18 @@
       <c r="D34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F34" s="1">
         <v>400</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:7">
-      <c r="A35" s="5" t="s">
+    <row r="35" s="1" customFormat="1" ht="225" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3228,44 +3228,44 @@
       <c r="D35" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="1">
         <v>200</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A36" s="5" t="s">
+    <row r="36" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="1">
         <v>403</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A37" s="5" t="s">
+    <row r="37" s="1" customFormat="1" ht="180" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -3274,18 +3274,18 @@
       <c r="D37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="1">
         <v>200</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3297,44 +3297,44 @@
       <c r="D38" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="1">
         <v>200</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A39" s="5" t="s">
+    <row r="39" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="1">
         <v>403</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3343,18 +3343,18 @@
       <c r="D40" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F40" s="1">
         <v>200</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A41" s="5" t="s">
+    <row r="41" s="1" customFormat="1" ht="225" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3366,44 +3366,44 @@
       <c r="D41" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F41" s="1">
         <v>200</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A42" s="5" t="s">
+    <row r="42" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="1">
         <v>403</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -3412,18 +3412,18 @@
       <c r="D43" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F43" s="1">
         <v>400</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3435,44 +3435,44 @@
       <c r="D44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F44" s="1">
         <v>200</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A45" s="5" t="s">
+    <row r="45" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="1">
         <v>403</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -3481,18 +3481,18 @@
       <c r="D46" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F46" s="1">
         <v>400</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A47" s="5" t="s">
+    <row r="47" s="1" customFormat="1" ht="409.5" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3504,44 +3504,44 @@
       <c r="D47" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F47" s="1">
         <v>200</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A48" s="5" t="s">
+    <row r="48" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F48" s="1">
         <v>403</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A49" s="5" t="s">
+    <row r="49" s="1" customFormat="1" ht="330" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -3550,18 +3550,18 @@
       <c r="D49" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F49" s="1">
         <v>200</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:7">
-      <c r="A50" s="5" t="s">
+    <row r="50" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3573,44 +3573,44 @@
       <c r="D50" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="1">
         <v>200</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A51" s="5" t="s">
+    <row r="51" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="1">
         <v>403</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -3619,18 +3619,18 @@
       <c r="D52" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F52" s="1">
         <v>200</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:7">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3642,64 +3642,64 @@
       <c r="D53" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="1">
         <v>200</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A54" s="5" t="s">
+    <row r="54" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F54" s="1">
         <v>403</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F55" s="1">
         <v>400</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3711,44 +3711,44 @@
       <c r="D56" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="1">
         <v>200</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A57" s="5" t="s">
+    <row r="57" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A57" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F57" s="1">
         <v>403</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -3757,18 +3757,18 @@
       <c r="D58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F58" s="1">
         <v>200</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3780,44 +3780,44 @@
       <c r="D59" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="1">
         <v>200</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A60" s="5" t="s">
+    <row r="60" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F60" s="1">
         <v>403</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3826,18 +3826,18 @@
       <c r="D61" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F61" s="1">
         <v>200</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A62" s="5" t="s">
+    <row r="62" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A62" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3849,44 +3849,44 @@
       <c r="D62" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="12">
-        <v>200</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="F62" s="11">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A63" s="5" t="s">
+    <row r="63" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F63" s="1">
         <v>403</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A64" s="5" t="s">
+    <row r="64" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A64" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -3895,18 +3895,18 @@
       <c r="D64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F64" s="1">
-        <v>403</v>
-      </c>
-      <c r="G64" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A65" s="5" t="s">
+    <row r="65" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A65" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3918,44 +3918,44 @@
       <c r="D65" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="3" t="s">
         <v>215</v>
       </c>
       <c r="F65" s="1">
         <v>200</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A66" s="5" t="s">
+    <row r="66" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F66" s="1">
         <v>403</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -3964,18 +3964,18 @@
       <c r="D67" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F67" s="1">
         <v>502</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -3987,44 +3987,44 @@
       <c r="D68" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="3" t="s">
         <v>225</v>
       </c>
       <c r="F68" s="1">
         <v>200</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A69" s="5" t="s">
+    <row r="69" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A69" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F69" s="1">
         <v>403</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -4033,21 +4033,21 @@
       <c r="D70" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F70" s="1">
         <v>400</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A71" s="5" t="s">
+    <row r="71" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>232</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -4056,64 +4056,64 @@
       <c r="D71" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F71" s="12">
-        <v>200</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="11">
+        <v>200</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A72" s="5" t="s">
+    <row r="72" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A72" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F72" s="1">
         <v>403</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F73" s="1">
         <v>400</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A74" s="5" t="s">
+    <row r="74" s="1" customFormat="1" ht="255" spans="1:7">
+      <c r="A74" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -4125,44 +4125,44 @@
       <c r="D74" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F74" s="1">
         <v>200</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A75" s="5" t="s">
+    <row r="75" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A75" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F75" s="1">
         <v>403</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -4171,18 +4171,18 @@
       <c r="D76" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="13">
         <v>502</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A77" s="5" t="s">
+    <row r="77" s="1" customFormat="1" ht="195" spans="1:7">
+      <c r="A77" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -4194,18 +4194,18 @@
       <c r="D77" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="1">
         <v>200</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A78" s="5" t="s">
+    <row r="78" s="1" customFormat="1" ht="180" spans="1:7">
+      <c r="A78" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4223,38 +4223,38 @@
       <c r="F78" s="1">
         <v>200</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A79" s="5" t="s">
+    <row r="79" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A79" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>257</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F79" s="1">
         <v>403</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>259</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -4263,18 +4263,18 @@
       <c r="D80" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F80" s="1">
         <v>400</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A81" s="5" t="s">
+    <row r="81" s="1" customFormat="1" ht="180" spans="1:7">
+      <c r="A81" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4292,38 +4292,38 @@
       <c r="F81" s="1">
         <v>200</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A82" s="5" t="s">
+    <row r="82" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A82" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F82" s="1">
         <v>403</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -4332,18 +4332,18 @@
       <c r="D83" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F83" s="1">
         <v>400</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A84" s="5" t="s">
+    <row r="84" s="1" customFormat="1" ht="255" spans="1:7">
+      <c r="A84" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4355,44 +4355,44 @@
       <c r="D84" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="3" t="s">
         <v>269</v>
       </c>
       <c r="F84" s="1">
         <v>200</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A85" s="5" t="s">
+    <row r="85" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A85" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>272</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F85" s="1">
         <v>403</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>274</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -4401,18 +4401,18 @@
       <c r="D86" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F86" s="1">
         <v>400</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A87" s="5" t="s">
+    <row r="87" s="1" customFormat="1" ht="195" spans="1:7">
+      <c r="A87" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -4424,41 +4424,44 @@
       <c r="D87" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F87" s="1">
-        <v>200</v>
+      <c r="F87" s="11">
+        <v>200</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F88" s="1">
         <v>403</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>282</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -4467,18 +4470,18 @@
       <c r="D89" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F89" s="1">
         <v>400</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:6">
-      <c r="A90" s="5" t="s">
+    <row r="90" s="1" customFormat="1" ht="195" spans="1:7">
+      <c r="A90" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -4490,42 +4493,45 @@
       <c r="D90" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A91" s="5" t="s">
+      <c r="E90" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="F90" s="11">
+        <v>200</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A91" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="B91" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="C91" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F91" s="1">
         <v>403</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A92" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="1" t="s">
         <v>289</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>9</v>
@@ -4533,434 +4539,437 @@
       <c r="D92" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F92" s="1">
         <v>400</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:7">
-      <c r="A93" s="5" t="s">
-        <v>290</v>
+    <row r="93" s="1" customFormat="1" ht="409.5" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="1">
         <v>200</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A94" s="5" t="s">
+      <c r="G93" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="10" t="s">
+    </row>
+    <row r="94" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A94" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="B94" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="C94" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F94" s="1">
         <v>403</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A95" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" s="10" t="s">
+    <row r="95" s="1" customFormat="1" ht="345" spans="1:7">
+      <c r="A95" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="B95" s="9" t="s">
+        <v>298</v>
+      </c>
       <c r="C95" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E95" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F95" s="1">
         <v>200</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>298</v>
+      <c r="G95" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="255" spans="1:7">
-      <c r="A96" s="5" t="s">
-        <v>299</v>
+      <c r="A96" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E96" s="7" t="s">
         <v>302</v>
       </c>
+      <c r="E96" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="F96" s="1">
         <v>200</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A97" s="5" t="s">
+      <c r="G96" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B97" s="10" t="s">
+    </row>
+    <row r="97" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A97" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="B97" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="C97" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F97" s="1">
         <v>403</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A98" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="B98" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="C98" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E98" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F98" s="1">
         <v>502</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A99" s="5" t="s">
-        <v>308</v>
+      <c r="A99" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="F99" s="1">
         <v>200</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A100" s="5" t="s">
+      <c r="G99" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B100" s="10" t="s">
+    </row>
+    <row r="100" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A100" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="B100" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="C100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F100" s="1">
         <v>403</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A101" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="B101" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="C101" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E101" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F101" s="1">
         <v>400</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A102" s="5" t="s">
-        <v>316</v>
+      <c r="A102" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E102" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F102" s="1">
         <v>200</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A103" s="5" t="s">
+      <c r="G102" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B103" s="10" t="s">
+    </row>
+    <row r="103" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A103" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="B103" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="C103" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F103" s="1">
         <v>403</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A104" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="B104" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="C104" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E104" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F104" s="1">
         <v>200</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A105" s="5" t="s">
-        <v>324</v>
+      <c r="G104" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="300" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E105" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F105" s="12">
-        <v>200</v>
-      </c>
-      <c r="G105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A106" s="5" t="s">
+      <c r="F105" s="11">
+        <v>200</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B106" s="10" t="s">
+    </row>
+    <row r="106" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A106" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="B106" s="9" t="s">
+        <v>331</v>
+      </c>
       <c r="C106" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F106" s="1">
         <v>403</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A107" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B107" s="10" t="s">
+      <c r="A107" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="B107" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="C107" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E107" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F107" s="1">
         <v>400</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" spans="1:7">
-      <c r="A108" s="5" t="s">
-        <v>333</v>
+    <row r="108" s="1" customFormat="1" ht="120" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E108" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F108" s="1">
         <v>200</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A109" s="5" t="s">
+      <c r="G108" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="10" t="s">
+    </row>
+    <row r="109" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A109" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="B109" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="C109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F109" s="1">
         <v>403</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A110" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" s="10" t="s">
+    <row r="110" s="1" customFormat="1" ht="120" spans="1:7">
+      <c r="A110" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="B110" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="C110" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E110" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F110" s="1">
         <v>200</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>336</v>
+      <c r="G110" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G110">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
